--- a/talklists/talklist.xlsx
+++ b/talklists/talklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/home/cv/talklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C6622A-97CC-7A43-B2B1-E8D685F6E7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283E3F32-4CA1-154D-A89D-BDB65518C060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
   <si>
     <t>title</t>
   </si>
@@ -603,12 +603,24 @@
   <si>
     <t>Cosmology analysis with Subaru HSC Y3 data and SDSS data: cosmological parameter inference in $\Lambda$CDM model</t>
   </si>
+  <si>
+    <t>HSC Year 3 Weak Lensing Cosmology Results</t>
+  </si>
+  <si>
+    <t>HSC webinar</t>
+  </si>
+  <si>
+    <t>https://hsc-release.mtk.nao.ac.jp/doc/index.php/wly3/</t>
+  </si>
+  <si>
+    <t>We presented our HSC-Y3 weak lensing cosmology results on webinar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -626,6 +638,12 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -755,10 +773,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -778,8 +797,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1941,7 +1963,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3029,24 +3051,42 @@
       <c r="R26" s="9"/>
     </row>
     <row r="27" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+      <c r="A27" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="C27" s="11">
+        <v>2023</v>
+      </c>
+      <c r="D27" s="11">
+        <v>4</v>
+      </c>
       <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="J27" s="11">
+        <v>1</v>
+      </c>
+      <c r="K27" s="11">
+        <v>1</v>
+      </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+      <c r="O27" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
+      <c r="Q27" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R27" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
@@ -3211,6 +3251,7 @@
     <hyperlink ref="O24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="O25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="O26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="O27" r:id="rId22" xr:uid="{6A059B92-0398-DC4B-A4F2-1ECE66875F8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/talklists/talklist.xlsx
+++ b/talklists/talklist.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/home/cv/talklists/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283E3F32-4CA1-154D-A89D-BDB65518C060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>title</t>
   </si>
@@ -93,11 +84,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>http://www.astro-wakate.org/ss2018/web/link.html</t>
     </r>
@@ -117,11 +107,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>http://web.cc.yamaguchi-u.ac.jp/~rsaito/obscosmo2018/</t>
     </r>
@@ -144,11 +133,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>https://www.asj.or.jp/nenkai/archive/2019a/pdf/U14a.pdf</t>
     </r>
@@ -165,11 +153,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>http://www2.yukawa.kyoto-u.ac.jp/~aud2019/index.php</t>
     </r>
@@ -183,11 +170,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>http://pt-chat-kyoto.sciencesconf.org/</t>
     </r>
@@ -210,11 +196,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>https://www.asj.or.jp/nenkai/archive/2019b/pdf/U20a.pdf</t>
     </r>
@@ -231,11 +216,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>http://indico.ipmu.jp/event/313/overview</t>
     </r>
@@ -273,11 +257,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>http://www.astro-wakate.org/ss2019/web/</t>
     </r>
@@ -309,11 +292,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>http://www.asj.or.jp/nenkai/archive/2020a/pdf/U03a.pdf</t>
     </r>
@@ -336,11 +318,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>http://conference-indico.kek.jp/event/117/timetable/#day-2020-11-04</t>
     </r>
@@ -360,11 +341,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>https://indico.ipmu.jp/event/382/timetable/#all</t>
     </r>
@@ -387,11 +367,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>https://www.kek.jp/ja/conference/20210407-3/</t>
     </r>
@@ -411,11 +390,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>https://www.asj.or.jp/nenkai/archive/2021b/pdf/U05a.pdf</t>
     </r>
@@ -429,11 +407,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>https://sites.google.com/view/obscosmws2021main</t>
     </r>
@@ -447,11 +424,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>https://sites.google.com/view/rironkon2021/</t>
     </r>
@@ -468,11 +444,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>https://subarutelescope.org/Science/SubaruUM/SubaruUM2021/</t>
     </r>
@@ -492,11 +467,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>https://www.jps.or.jp/activities/meetings/annual/annual-index.php</t>
     </r>
@@ -516,11 +490,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>http://astro-osaka.jp/OUTAP/colloquium-abstracts.html#sugiyama</t>
     </r>
@@ -540,11 +513,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>https://www.asj.or.jp/nenkai/archive/2022b/pdf/U15a.pdf</t>
     </r>
@@ -553,6 +525,9 @@
     <t>すばるHSCの3年度データとSDSSデータを用いた宇宙論解析: ΛCDMモデルにおける宇宙論パラメタ推定</t>
   </si>
   <si>
+    <t>Cosmology analysis with Subaru HSC Y3 data and SDSS data: cosmological parameter inference in $\Lambda$CDM model</t>
+  </si>
+  <si>
     <t>Rikkyo U</t>
   </si>
   <si>
@@ -564,11 +539,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>https://www.asj.or.jp/nenkai/archive/2023a/pdf/U20a.pdf</t>
     </r>
@@ -591,62 +565,95 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>http://gopira.jp/Dthesis2022/program.html</t>
     </r>
   </si>
   <si>
-    <t>Cosmology analysis with Subaru HSC Y3 data and SDSS data: cosmological parameter inference in $\Lambda$CDM model</t>
-  </si>
-  <si>
     <t>HSC Year 3 Weak Lensing Cosmology Results</t>
   </si>
   <si>
     <t>HSC webinar</t>
   </si>
   <si>
-    <t>https://hsc-release.mtk.nao.ac.jp/doc/index.php/wly3/</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="14"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://hsc-release.mtk.nao.ac.jp/doc/index.php/wly3/</t>
+    </r>
   </si>
   <si>
     <t>We presented our HSC-Y3 weak lensing cosmology results on webinar</t>
+  </si>
+  <si>
+    <t>HSC Y3 cosmology results</t>
+  </si>
+  <si>
+    <t>CMB x LSS</t>
+  </si>
+  <si>
+    <t>Jia Liu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="14"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www2.yukawa.kyoto-u.ac.jp/~cmb-lss/index.php</t>
+    </r>
+  </si>
+  <si>
+    <t>Shared session with Roohi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <color indexed="14"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,6 +669,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -773,120 +786,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFD8D8D8"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFB4C6E7"/>
-      <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffd8d8d8"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffb4c6e7"/>
+      <rgbColor rgb="ff0563c1"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1078,17 +1067,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1106,8 +1095,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1116,10 +1104,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1136,8 +1124,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,8 +1149,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,8 +1174,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,8 +1199,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,8 +1224,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,8 +1249,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,8 +1274,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,8 +1299,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,8 +1324,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,32 +1337,26 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1401,8 +1374,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,8 +1399,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1453,8 +1424,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1479,8 +1449,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1505,8 +1474,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1531,8 +1499,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1557,8 +1524,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1583,8 +1549,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1609,8 +1574,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1635,8 +1599,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1649,15 +1612,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1671,7 +1628,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1689,8 +1646,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1699,10 +1655,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1719,8 +1675,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1745,8 +1700,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1771,8 +1725,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1797,8 +1750,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1823,8 +1775,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1849,8 +1800,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1875,8 +1825,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1901,8 +1850,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1927,8 +1875,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1941,110 +1888,101 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="114.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="22.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="67.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="57.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="114.672" style="1" customWidth="1"/>
+    <col min="3" max="5" width="22.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.3516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1719" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
-    <col min="10" max="13" width="10.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="60.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="28.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="90.1640625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="10.83203125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="13" width="10.8516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6719" style="1" customWidth="1"/>
+    <col min="15" max="15" width="60.3516" style="1" customWidth="1"/>
+    <col min="16" max="16" width="28.1719" style="1" customWidth="1"/>
+    <col min="17" max="17" width="90.1719" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.8516" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.25" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" t="s" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="15.25" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s" s="6">
         <v>19</v>
       </c>
       <c r="C2" s="7">
@@ -2053,13 +1991,13 @@
       <c r="D2" s="7">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s" s="6">
         <v>22</v>
       </c>
       <c r="H2" s="7">
@@ -2073,15 +2011,15 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="6" t="s">
+      <c r="O2" t="s" s="6">
         <v>23</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="9"/>
     </row>
-    <row r="3" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" ht="15.25" customHeight="1">
+      <c r="A3" t="s" s="10">
         <v>24</v>
       </c>
       <c r="B3" s="11"/>
@@ -2091,13 +2029,13 @@
       <c r="D3" s="12">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" t="s" s="10">
         <v>27</v>
       </c>
       <c r="H3" s="12">
@@ -2111,7 +2049,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="10" t="s">
+      <c r="O3" t="s" s="10">
         <v>28</v>
       </c>
       <c r="P3" s="11"/>
@@ -2120,11 +2058,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="15.25" customHeight="1">
+      <c r="A4" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s" s="6">
         <v>30</v>
       </c>
       <c r="C4" s="7">
@@ -2133,13 +2071,13 @@
       <c r="D4" s="7">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" t="s" s="6">
         <v>33</v>
       </c>
       <c r="H4" s="7">
@@ -2153,7 +2091,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="6" t="s">
+      <c r="O4" t="s" s="6">
         <v>34</v>
       </c>
       <c r="P4" s="8"/>
@@ -2162,8 +2100,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" ht="15.25" customHeight="1">
+      <c r="A5" t="s" s="10">
         <v>35</v>
       </c>
       <c r="B5" s="11"/>
@@ -2173,10 +2111,10 @@
       <c r="D5" s="12">
         <v>3</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" t="s" s="10">
         <v>37</v>
       </c>
       <c r="G5" s="11"/>
@@ -2191,15 +2129,15 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="10" t="s">
+      <c r="O5" t="s" s="10">
         <v>38</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" ht="15.25" customHeight="1">
+      <c r="A6" t="s" s="5">
         <v>39</v>
       </c>
       <c r="B6" s="8"/>
@@ -2209,10 +2147,10 @@
       <c r="D6" s="7">
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s" s="6">
         <v>40</v>
       </c>
       <c r="G6" s="8"/>
@@ -2227,18 +2165,18 @@
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="6" t="s">
+      <c r="O6" t="s" s="6">
         <v>41</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" ht="15.25" customHeight="1">
+      <c r="A7" t="s" s="10">
         <v>42</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" t="s" s="10">
         <v>43</v>
       </c>
       <c r="C7" s="12">
@@ -2247,13 +2185,13 @@
       <c r="D7" s="12">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" t="s" s="10">
         <v>44</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" t="s" s="10">
         <v>45</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" t="s" s="10">
         <v>46</v>
       </c>
       <c r="H7" s="12">
@@ -2267,7 +2205,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="10" t="s">
+      <c r="O7" t="s" s="10">
         <v>47</v>
       </c>
       <c r="P7" s="11"/>
@@ -2276,8 +2214,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="15.25" customHeight="1">
+      <c r="A8" t="s" s="5">
         <v>48</v>
       </c>
       <c r="B8" s="8"/>
@@ -2287,10 +2225,10 @@
       <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" t="s" s="6">
         <v>49</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" t="s" s="6">
         <v>50</v>
       </c>
       <c r="G8" s="8"/>
@@ -2305,15 +2243,15 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="6" t="s">
+      <c r="O8" t="s" s="6">
         <v>51</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="9" ht="15.25" customHeight="1">
+      <c r="A9" t="s" s="10">
         <v>52</v>
       </c>
       <c r="B9" s="11"/>
@@ -2323,10 +2261,10 @@
       <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" t="s" s="10">
         <v>53</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" t="s" s="10">
         <v>54</v>
       </c>
       <c r="G9" s="11"/>
@@ -2340,7 +2278,7 @@
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="10" t="s">
+      <c r="N9" t="s" s="10">
         <v>55</v>
       </c>
       <c r="O9" s="11"/>
@@ -2348,11 +2286,11 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="15.25" customHeight="1">
+      <c r="A10" t="s" s="5">
         <v>56</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s" s="6">
         <v>57</v>
       </c>
       <c r="C10" s="7">
@@ -2361,10 +2299,10 @@
       <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" t="s" s="6">
         <v>58</v>
       </c>
       <c r="G10" s="8"/>
@@ -2386,11 +2324,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+    <row r="11" ht="15.25" customHeight="1">
+      <c r="A11" t="s" s="10">
         <v>59</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" t="s" s="10">
         <v>60</v>
       </c>
       <c r="C11" s="12">
@@ -2399,13 +2337,13 @@
       <c r="D11" s="12">
         <v>8</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" t="s" s="10">
         <v>61</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" t="s" s="10">
         <v>22</v>
       </c>
       <c r="H11" s="12">
@@ -2419,7 +2357,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="10" t="s">
+      <c r="O11" t="s" s="10">
         <v>62</v>
       </c>
       <c r="P11" s="11"/>
@@ -2428,8 +2366,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" ht="15.25" customHeight="1">
+      <c r="A12" t="s" s="5">
         <v>63</v>
       </c>
       <c r="B12" s="8"/>
@@ -2439,10 +2377,10 @@
       <c r="D12" s="7">
         <v>8</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" t="s" s="6">
         <v>64</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" t="s" s="6">
         <v>65</v>
       </c>
       <c r="G12" s="8"/>
@@ -2458,7 +2396,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="6" t="s">
+      <c r="N12" t="s" s="6">
         <v>66</v>
       </c>
       <c r="O12" s="8"/>
@@ -2468,11 +2406,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+    <row r="13" ht="15.25" customHeight="1">
+      <c r="A13" t="s" s="10">
         <v>67</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" t="s" s="10">
         <v>68</v>
       </c>
       <c r="C13" s="12">
@@ -2482,10 +2420,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="10" t="s">
+      <c r="F13" t="s" s="10">
         <v>69</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" t="s" s="10">
         <v>70</v>
       </c>
       <c r="H13" s="12">
@@ -2499,17 +2437,17 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="10" t="s">
+      <c r="O13" t="s" s="10">
         <v>71</v>
       </c>
       <c r="P13" s="11"/>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" t="s" s="10">
         <v>72</v>
       </c>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" ht="15.25" customHeight="1">
+      <c r="A14" t="s" s="5">
         <v>73</v>
       </c>
       <c r="B14" s="8"/>
@@ -2519,10 +2457,10 @@
       <c r="D14" s="7">
         <v>11</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" t="s" s="6">
         <v>74</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" t="s" s="6">
         <v>75</v>
       </c>
       <c r="G14" s="8"/>
@@ -2540,10 +2478,10 @@
       <c r="M14" s="7">
         <v>1</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" t="s" s="6">
         <v>76</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" t="s" s="6">
         <v>77</v>
       </c>
       <c r="P14" s="8"/>
@@ -2552,11 +2490,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+    <row r="15" ht="15.25" customHeight="1">
+      <c r="A15" t="s" s="10">
         <v>78</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" t="s" s="10">
         <v>79</v>
       </c>
       <c r="C15" s="12">
@@ -2566,10 +2504,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" t="s" s="10">
         <v>80</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" t="s" s="10">
         <v>81</v>
       </c>
       <c r="H15" s="12">
@@ -2585,7 +2523,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
-      <c r="O15" s="10" t="s">
+      <c r="O15" t="s" s="10">
         <v>82</v>
       </c>
       <c r="P15" s="11"/>
@@ -2594,8 +2532,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" ht="15.25" customHeight="1">
+      <c r="A16" t="s" s="5">
         <v>83</v>
       </c>
       <c r="B16" s="8"/>
@@ -2605,10 +2543,10 @@
       <c r="D16" s="7">
         <v>12</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" t="s" s="6">
         <v>49</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" t="s" s="6">
         <v>84</v>
       </c>
       <c r="G16" s="8"/>
@@ -2624,7 +2562,7 @@
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="6" t="s">
+      <c r="N16" t="s" s="6">
         <v>85</v>
       </c>
       <c r="O16" s="8"/>
@@ -2634,8 +2572,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+    <row r="17" ht="15.25" customHeight="1">
+      <c r="A17" t="s" s="10">
         <v>86</v>
       </c>
       <c r="B17" s="11"/>
@@ -2645,10 +2583,10 @@
       <c r="D17" s="12">
         <v>4</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" t="s" s="10">
         <v>74</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" t="s" s="10">
         <v>87</v>
       </c>
       <c r="G17" s="11"/>
@@ -2664,10 +2602,10 @@
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="10" t="s">
+      <c r="N17" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" t="s" s="10">
         <v>88</v>
       </c>
       <c r="P17" s="11"/>
@@ -2676,11 +2614,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" ht="15.25" customHeight="1">
+      <c r="A18" t="s" s="5">
         <v>89</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s" s="6">
         <v>90</v>
       </c>
       <c r="C18" s="7">
@@ -2690,10 +2628,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="6" t="s">
+      <c r="F18" t="s" s="6">
         <v>91</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" t="s" s="6">
         <v>92</v>
       </c>
       <c r="H18" s="7">
@@ -2709,7 +2647,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="6" t="s">
+      <c r="O18" t="s" s="6">
         <v>93</v>
       </c>
       <c r="P18" s="8"/>
@@ -2718,11 +2656,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+    <row r="19" ht="15.25" customHeight="1">
+      <c r="A19" t="s" s="10">
         <v>89</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" t="s" s="10">
         <v>90</v>
       </c>
       <c r="C19" s="12">
@@ -2732,10 +2670,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="10" t="s">
+      <c r="F19" t="s" s="10">
         <v>94</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" t="s" s="10">
         <v>95</v>
       </c>
       <c r="H19" s="12">
@@ -2751,18 +2689,18 @@
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="10" t="s">
+      <c r="O19" t="s" s="10">
         <v>96</v>
       </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="20" ht="15.25" customHeight="1">
+      <c r="A20" t="s" s="5">
         <v>89</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s" s="6">
         <v>90</v>
       </c>
       <c r="C20" s="7">
@@ -2772,10 +2710,10 @@
         <v>12</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="6" t="s">
+      <c r="F20" t="s" s="6">
         <v>97</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" t="s" s="6">
         <v>98</v>
       </c>
       <c r="H20" s="7">
@@ -2791,7 +2729,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="6" t="s">
+      <c r="O20" t="s" s="6">
         <v>99</v>
       </c>
       <c r="P20" s="8"/>
@@ -2800,8 +2738,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+    <row r="21" ht="15.25" customHeight="1">
+      <c r="A21" t="s" s="10">
         <v>100</v>
       </c>
       <c r="B21" s="11"/>
@@ -2811,13 +2749,13 @@
       <c r="D21" s="12">
         <v>1</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" t="s" s="10">
         <v>101</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" t="s" s="10">
         <v>102</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" t="s" s="10">
         <v>102</v>
       </c>
       <c r="H21" s="12">
@@ -2833,7 +2771,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
-      <c r="O21" s="10" t="s">
+      <c r="O21" t="s" s="10">
         <v>103</v>
       </c>
       <c r="P21" s="11"/>
@@ -2842,11 +2780,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="22" ht="15.25" customHeight="1">
+      <c r="A22" t="s" s="5">
         <v>104</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" t="s" s="6">
         <v>105</v>
       </c>
       <c r="C22" s="7">
@@ -2856,10 +2794,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="6" t="s">
+      <c r="F22" t="s" s="6">
         <v>106</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" t="s" s="6">
         <v>107</v>
       </c>
       <c r="H22" s="7">
@@ -2875,7 +2813,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="6" t="s">
+      <c r="O22" t="s" s="6">
         <v>108</v>
       </c>
       <c r="P22" s="8"/>
@@ -2884,8 +2822,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+    <row r="23" ht="15.25" customHeight="1">
+      <c r="A23" t="s" s="10">
         <v>109</v>
       </c>
       <c r="B23" s="11"/>
@@ -2895,10 +2833,10 @@
       <c r="D23" s="12">
         <v>7</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" t="s" s="10">
         <v>110</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" t="s" s="10">
         <v>111</v>
       </c>
       <c r="G23" s="11"/>
@@ -2916,10 +2854,10 @@
       <c r="M23" s="12">
         <v>1</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" t="s" s="10">
         <v>112</v>
       </c>
-      <c r="O23" s="10" t="s">
+      <c r="O23" t="s" s="10">
         <v>113</v>
       </c>
       <c r="P23" s="11"/>
@@ -2928,11 +2866,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" ht="15.25" customHeight="1">
+      <c r="A24" t="s" s="5">
         <v>114</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" t="s" s="6">
         <v>115</v>
       </c>
       <c r="C24" s="7">
@@ -2942,10 +2880,10 @@
         <v>9</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="6" t="s">
+      <c r="F24" t="s" s="6">
         <v>116</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" t="s" s="6">
         <v>117</v>
       </c>
       <c r="H24" s="7">
@@ -2959,7 +2897,7 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="6" t="s">
+      <c r="O24" t="s" s="6">
         <v>118</v>
       </c>
       <c r="P24" s="8"/>
@@ -2968,12 +2906,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+    <row r="25" ht="15.25" customHeight="1">
+      <c r="A25" t="s" s="10">
         <v>119</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>130</v>
+      <c r="B25" t="s" s="10">
+        <v>120</v>
       </c>
       <c r="C25" s="12">
         <v>2023</v>
@@ -2981,14 +2919,14 @@
       <c r="D25" s="12">
         <v>3</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="10" t="s">
+      <c r="E25" t="s" s="10">
         <v>121</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="F25" t="s" s="10">
         <v>122</v>
+      </c>
+      <c r="G25" t="s" s="10">
+        <v>123</v>
       </c>
       <c r="H25" s="12">
         <v>1</v>
@@ -3001,8 +2939,8 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="10" t="s">
-        <v>123</v>
+      <c r="O25" t="s" s="10">
+        <v>124</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -3010,12 +2948,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="6" t="s">
+    <row r="26" ht="15.25" customHeight="1">
+      <c r="A26" t="s" s="5">
         <v>125</v>
+      </c>
+      <c r="B26" t="s" s="6">
+        <v>126</v>
       </c>
       <c r="C26" s="7">
         <v>2023</v>
@@ -3023,14 +2961,14 @@
       <c r="D26" s="7">
         <v>3</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" t="s" s="6">
         <v>127</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="F26" t="s" s="6">
         <v>128</v>
+      </c>
+      <c r="G26" t="s" s="6">
+        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3043,72 +2981,96 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="6" t="s">
-        <v>129</v>
+      <c r="O26" t="s" s="6">
+        <v>130</v>
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="9"/>
     </row>
-    <row r="27" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+    <row r="27" ht="15.25" customHeight="1">
+      <c r="A27" t="s" s="10">
         <v>131</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="11">
+      <c r="C27" s="12">
         <v>2023</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="12">
         <v>4</v>
       </c>
       <c r="E27" s="11"/>
-      <c r="F27" s="19" t="s">
+      <c r="F27" t="s" s="10">
         <v>132</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="11">
-        <v>1</v>
-      </c>
-      <c r="K27" s="11">
+      <c r="J27" s="12">
+        <v>1</v>
+      </c>
+      <c r="K27" s="12">
         <v>1</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="20" t="s">
+      <c r="O27" t="s" s="10">
         <v>133</v>
       </c>
       <c r="P27" s="11"/>
-      <c r="Q27" s="19" t="s">
+      <c r="Q27" t="s" s="10">
         <v>134</v>
       </c>
-      <c r="R27" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="R27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" customHeight="1">
+      <c r="A28" t="s" s="5">
+        <v>135</v>
+      </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="C28" s="7">
+        <v>2023</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s" s="6">
+        <v>136</v>
+      </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
       <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s" s="6">
+        <v>137</v>
+      </c>
+      <c r="O28" t="s" s="6">
+        <v>138</v>
+      </c>
       <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="9"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q28" t="s" s="6">
+        <v>139</v>
+      </c>
+      <c r="R28" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3128,7 +3090,7 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
     </row>
-    <row r="30" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="15.25" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3148,7 +3110,7 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="9"/>
     </row>
-    <row r="31" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="15.25" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3168,7 +3130,7 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
     </row>
-    <row r="32" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="15.25" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3188,7 +3150,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="9"/>
     </row>
-    <row r="33" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" ht="15.25" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3208,7 +3170,7 @@
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
     </row>
-    <row r="34" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" ht="15.25" customHeight="1">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -3230,31 +3192,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="O11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="O14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="O17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="O19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="O21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="O23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="O25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="O27" r:id="rId22" xr:uid="{6A059B92-0398-DC4B-A4F2-1ECE66875F8F}"/>
+    <hyperlink ref="O2" r:id="rId1" location="" tooltip="" display="http://www.astro-wakate.org/ss2018/web/link.html"/>
+    <hyperlink ref="O3" r:id="rId2" location="" tooltip="" display="http://web.cc.yamaguchi-u.ac.jp/~rsaito/obscosmo2018/"/>
+    <hyperlink ref="O4" r:id="rId3" location="" tooltip="" display="https://www.asj.or.jp/nenkai/archive/2019a/pdf/U14a.pdf"/>
+    <hyperlink ref="O5" r:id="rId4" location="" tooltip="" display="http://www2.yukawa.kyoto-u.ac.jp/~aud2019/index.php"/>
+    <hyperlink ref="O6" r:id="rId5" location="" tooltip="" display="http://pt-chat-kyoto.sciencesconf.org/"/>
+    <hyperlink ref="O7" r:id="rId6" location="" tooltip="" display="https://www.asj.or.jp/nenkai/archive/2019b/pdf/U20a.pdf"/>
+    <hyperlink ref="O8" r:id="rId7" location="" tooltip="" display="http://indico.ipmu.jp/event/313/overview"/>
+    <hyperlink ref="O11" r:id="rId8" location="" tooltip="" display="http://www.astro-wakate.org/ss2019/web/"/>
+    <hyperlink ref="O13" r:id="rId9" location="" tooltip="" display="http://www.asj.or.jp/nenkai/archive/2020a/pdf/U03a.pdf"/>
+    <hyperlink ref="O14" r:id="rId10" location="" tooltip="" display="http://conference-indico.kek.jp/event/117/timetable/#day-2020-11-04"/>
+    <hyperlink ref="O15" r:id="rId11" location="" tooltip="" display="https://indico.ipmu.jp/event/382/timetable/#all"/>
+    <hyperlink ref="O17" r:id="rId12" location="" tooltip="" display="https://www.kek.jp/ja/conference/20210407-3/"/>
+    <hyperlink ref="O18" r:id="rId13" location="" tooltip="" display="https://www.asj.or.jp/nenkai/archive/2021b/pdf/U05a.pdf"/>
+    <hyperlink ref="O19" r:id="rId14" location="" tooltip="" display="https://sites.google.com/view/obscosmws2021main"/>
+    <hyperlink ref="O20" r:id="rId15" location="" tooltip="" display="https://sites.google.com/view/rironkon2021/"/>
+    <hyperlink ref="O21" r:id="rId16" location="" tooltip="" display="https://subarutelescope.org/Science/SubaruUM/SubaruUM2021/"/>
+    <hyperlink ref="O22" r:id="rId17" location="" tooltip="" display="https://www.jps.or.jp/activities/meetings/annual/annual-index.php"/>
+    <hyperlink ref="O23" r:id="rId18" location="" tooltip="" display="http://astro-osaka.jp/OUTAP/colloquium-abstracts.html#sugiyama"/>
+    <hyperlink ref="O24" r:id="rId19" location="" tooltip="" display="https://www.asj.or.jp/nenkai/archive/2022b/pdf/U15a.pdf"/>
+    <hyperlink ref="O25" r:id="rId20" location="" tooltip="" display="https://www.asj.or.jp/nenkai/archive/2023a/pdf/U20a.pdf"/>
+    <hyperlink ref="O26" r:id="rId21" location="" tooltip="" display="http://gopira.jp/Dthesis2022/program.html"/>
+    <hyperlink ref="O27" r:id="rId22" location="" tooltip="" display="https://hsc-release.mtk.nao.ac.jp/doc/index.php/wly3/"/>
+    <hyperlink ref="O28" r:id="rId23" location="" tooltip="" display="https://www2.yukawa.kyoto-u.ac.jp/~cmb-lss/index.php"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/talklists/talklist.xlsx
+++ b/talklists/talklist.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/home/cv/talklists/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3949DA45-A669-C44D-817A-53100E64D846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="145">
   <si>
     <t>title</t>
   </si>
@@ -84,7 +93,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -107,7 +116,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -133,7 +142,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -153,7 +162,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -170,7 +179,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -196,7 +205,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -216,7 +225,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -257,7 +266,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -292,7 +301,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -318,7 +327,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -341,7 +350,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -367,7 +376,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -390,7 +399,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -407,7 +416,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -424,7 +433,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -444,7 +453,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -467,7 +476,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -490,7 +499,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -513,7 +522,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -539,7 +548,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -565,7 +574,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -582,7 +591,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Calibri"/>
@@ -605,7 +614,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Calibri"/>
@@ -616,40 +625,60 @@
   <si>
     <t>Shared session with Roohi</t>
   </si>
+  <si>
+    <t>Windows on the Universe</t>
+  </si>
+  <si>
+    <t>ICISE, Vietnum</t>
+  </si>
+  <si>
+    <t>Hyper Suprime-Cam Year 3 Results: Cosmology from Weak Lensing with HSC</t>
+  </si>
+  <si>
+    <t>http://vietnam.in2p3.fr/2023/windows/index.html</t>
+  </si>
+  <si>
+    <t>Jacques Dumarchez</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="14"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -786,96 +815,120 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffb4c6e7"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFB4C6E7"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1077,7 +1130,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1095,7 +1148,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1124,7 +1177,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +1202,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,7 +1227,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +1252,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1277,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,7 +1302,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1327,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1299,7 +1352,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1324,7 +1377,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1337,9 +1390,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1356,7 +1415,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1374,7 +1433,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1399,7 +1458,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1424,7 +1483,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1449,7 +1508,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1474,7 +1533,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1499,7 +1558,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,7 +1583,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1549,7 +1608,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1574,7 +1633,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1599,7 +1658,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1612,9 +1671,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1628,7 +1693,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1646,7 +1711,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1675,7 +1740,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1700,7 +1765,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1725,7 +1790,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1750,7 +1815,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1775,7 +1840,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1800,7 +1865,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1825,7 +1890,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1850,7 +1915,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1875,7 +1940,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1888,101 +1953,110 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="114.672" style="1" customWidth="1"/>
-    <col min="3" max="5" width="22.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="67.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="57.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="114.6640625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="22.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
-    <col min="10" max="13" width="10.8516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6719" style="1" customWidth="1"/>
-    <col min="15" max="15" width="60.3516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="28.1719" style="1" customWidth="1"/>
-    <col min="17" max="17" width="90.1719" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.8516" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="10" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="60.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="28.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="90.1640625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="10.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="3">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="3">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="3">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="3">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="3">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="3">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="3">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="3">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="4">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="15.25" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="7">
@@ -1991,13 +2065,13 @@
       <c r="D2" s="7">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="7">
@@ -2011,15 +2085,15 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-      <c r="O2" t="s" s="6">
+      <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="9"/>
     </row>
-    <row r="3" ht="15.25" customHeight="1">
-      <c r="A3" t="s" s="10">
+    <row r="3" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11"/>
@@ -2029,13 +2103,13 @@
       <c r="D3" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="10">
+      <c r="E3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s" s="10">
+      <c r="F3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s" s="10">
+      <c r="G3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="12">
@@ -2049,7 +2123,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" t="s" s="10">
+      <c r="O3" s="10" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="11"/>
@@ -2058,11 +2132,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15.25" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="7">
@@ -2071,13 +2145,13 @@
       <c r="D4" s="7">
         <v>3</v>
       </c>
-      <c r="E4" t="s" s="6">
+      <c r="E4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s" s="6">
+      <c r="F4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s" s="6">
+      <c r="G4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="7">
@@ -2091,7 +2165,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" t="s" s="6">
+      <c r="O4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="P4" s="8"/>
@@ -2100,8 +2174,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15.25" customHeight="1">
-      <c r="A5" t="s" s="10">
+    <row r="5" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="11"/>
@@ -2111,10 +2185,10 @@
       <c r="D5" s="12">
         <v>3</v>
       </c>
-      <c r="E5" t="s" s="10">
+      <c r="E5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s" s="10">
+      <c r="F5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="11"/>
@@ -2129,15 +2203,15 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-      <c r="O5" t="s" s="10">
+      <c r="O5" s="10" t="s">
         <v>38</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" ht="15.25" customHeight="1">
-      <c r="A6" t="s" s="5">
+    <row r="6" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="8"/>
@@ -2147,10 +2221,10 @@
       <c r="D6" s="7">
         <v>4</v>
       </c>
-      <c r="E6" t="s" s="6">
+      <c r="E6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s" s="6">
+      <c r="F6" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="8"/>
@@ -2165,18 +2239,18 @@
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" t="s" s="6">
+      <c r="O6" s="6" t="s">
         <v>41</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" ht="15.25" customHeight="1">
-      <c r="A7" t="s" s="10">
+    <row r="7" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s" s="10">
+      <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="12">
@@ -2185,13 +2259,13 @@
       <c r="D7" s="12">
         <v>9</v>
       </c>
-      <c r="E7" t="s" s="10">
+      <c r="E7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s" s="10">
+      <c r="F7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s" s="10">
+      <c r="G7" s="10" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="12">
@@ -2205,7 +2279,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-      <c r="O7" t="s" s="10">
+      <c r="O7" s="10" t="s">
         <v>47</v>
       </c>
       <c r="P7" s="11"/>
@@ -2214,8 +2288,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="15.25" customHeight="1">
-      <c r="A8" t="s" s="5">
+    <row r="8" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="8"/>
@@ -2225,10 +2299,10 @@
       <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" t="s" s="6">
+      <c r="E8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s" s="6">
+      <c r="F8" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G8" s="8"/>
@@ -2243,15 +2317,15 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" t="s" s="6">
+      <c r="O8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" ht="15.25" customHeight="1">
-      <c r="A9" t="s" s="10">
+    <row r="9" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="11"/>
@@ -2261,10 +2335,10 @@
       <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" t="s" s="10">
+      <c r="E9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F9" t="s" s="10">
+      <c r="F9" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G9" s="11"/>
@@ -2278,7 +2352,7 @@
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" t="s" s="10">
+      <c r="N9" s="10" t="s">
         <v>55</v>
       </c>
       <c r="O9" s="11"/>
@@ -2286,11 +2360,11 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" ht="15.25" customHeight="1">
-      <c r="A10" t="s" s="5">
+    <row r="10" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="7">
@@ -2299,10 +2373,10 @@
       <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" t="s" s="6">
+      <c r="E10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F10" t="s" s="6">
+      <c r="F10" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="8"/>
@@ -2324,11 +2398,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15.25" customHeight="1">
-      <c r="A11" t="s" s="10">
+    <row r="11" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B11" t="s" s="10">
+      <c r="B11" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="12">
@@ -2337,13 +2411,13 @@
       <c r="D11" s="12">
         <v>8</v>
       </c>
-      <c r="E11" t="s" s="10">
+      <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="10">
+      <c r="F11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G11" t="s" s="10">
+      <c r="G11" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="12">
@@ -2357,7 +2431,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" t="s" s="10">
+      <c r="O11" s="10" t="s">
         <v>62</v>
       </c>
       <c r="P11" s="11"/>
@@ -2366,8 +2440,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="15.25" customHeight="1">
-      <c r="A12" t="s" s="5">
+    <row r="12" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="8"/>
@@ -2377,10 +2451,10 @@
       <c r="D12" s="7">
         <v>8</v>
       </c>
-      <c r="E12" t="s" s="6">
+      <c r="E12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F12" t="s" s="6">
+      <c r="F12" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="8"/>
@@ -2396,7 +2470,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" t="s" s="6">
+      <c r="N12" s="6" t="s">
         <v>66</v>
       </c>
       <c r="O12" s="8"/>
@@ -2406,11 +2480,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="15.25" customHeight="1">
-      <c r="A13" t="s" s="10">
+    <row r="13" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B13" t="s" s="10">
+      <c r="B13" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="12">
@@ -2420,10 +2494,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" t="s" s="10">
+      <c r="F13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G13" t="s" s="10">
+      <c r="G13" s="10" t="s">
         <v>70</v>
       </c>
       <c r="H13" s="12">
@@ -2437,17 +2511,17 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-      <c r="O13" t="s" s="10">
+      <c r="O13" s="10" t="s">
         <v>71</v>
       </c>
       <c r="P13" s="11"/>
-      <c r="Q13" t="s" s="10">
+      <c r="Q13" s="10" t="s">
         <v>72</v>
       </c>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" ht="15.25" customHeight="1">
-      <c r="A14" t="s" s="5">
+    <row r="14" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="8"/>
@@ -2457,10 +2531,10 @@
       <c r="D14" s="7">
         <v>11</v>
       </c>
-      <c r="E14" t="s" s="6">
+      <c r="E14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F14" t="s" s="6">
+      <c r="F14" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G14" s="8"/>
@@ -2478,10 +2552,10 @@
       <c r="M14" s="7">
         <v>1</v>
       </c>
-      <c r="N14" t="s" s="6">
+      <c r="N14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O14" t="s" s="6">
+      <c r="O14" s="6" t="s">
         <v>77</v>
       </c>
       <c r="P14" s="8"/>
@@ -2490,11 +2564,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15.25" customHeight="1">
-      <c r="A15" t="s" s="10">
+    <row r="15" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B15" t="s" s="10">
+      <c r="B15" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="12">
@@ -2504,10 +2578,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" t="s" s="10">
+      <c r="F15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G15" t="s" s="10">
+      <c r="G15" s="10" t="s">
         <v>81</v>
       </c>
       <c r="H15" s="12">
@@ -2523,7 +2597,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
-      <c r="O15" t="s" s="10">
+      <c r="O15" s="10" t="s">
         <v>82</v>
       </c>
       <c r="P15" s="11"/>
@@ -2532,8 +2606,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="15.25" customHeight="1">
-      <c r="A16" t="s" s="5">
+    <row r="16" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="8"/>
@@ -2543,10 +2617,10 @@
       <c r="D16" s="7">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="6">
+      <c r="E16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F16" t="s" s="6">
+      <c r="F16" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G16" s="8"/>
@@ -2562,7 +2636,7 @@
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" t="s" s="6">
+      <c r="N16" s="6" t="s">
         <v>85</v>
       </c>
       <c r="O16" s="8"/>
@@ -2572,8 +2646,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="15.25" customHeight="1">
-      <c r="A17" t="s" s="10">
+    <row r="17" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B17" s="11"/>
@@ -2583,10 +2657,10 @@
       <c r="D17" s="12">
         <v>4</v>
       </c>
-      <c r="E17" t="s" s="10">
+      <c r="E17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F17" t="s" s="10">
+      <c r="F17" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G17" s="11"/>
@@ -2602,10 +2676,10 @@
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" t="s" s="10">
+      <c r="N17" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="O17" t="s" s="10">
+      <c r="O17" s="10" t="s">
         <v>88</v>
       </c>
       <c r="P17" s="11"/>
@@ -2614,11 +2688,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="15.25" customHeight="1">
-      <c r="A18" t="s" s="5">
+    <row r="18" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B18" t="s" s="6">
+      <c r="B18" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C18" s="7">
@@ -2628,10 +2702,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" t="s" s="6">
+      <c r="F18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G18" t="s" s="6">
+      <c r="G18" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H18" s="7">
@@ -2647,7 +2721,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" t="s" s="6">
+      <c r="O18" s="6" t="s">
         <v>93</v>
       </c>
       <c r="P18" s="8"/>
@@ -2656,11 +2730,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="15.25" customHeight="1">
-      <c r="A19" t="s" s="10">
+    <row r="19" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B19" t="s" s="10">
+      <c r="B19" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="12">
@@ -2670,10 +2744,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" t="s" s="10">
+      <c r="F19" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G19" t="s" s="10">
+      <c r="G19" s="10" t="s">
         <v>95</v>
       </c>
       <c r="H19" s="12">
@@ -2689,18 +2763,18 @@
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-      <c r="O19" t="s" s="10">
+      <c r="O19" s="10" t="s">
         <v>96</v>
       </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" ht="15.25" customHeight="1">
-      <c r="A20" t="s" s="5">
+    <row r="20" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B20" t="s" s="6">
+      <c r="B20" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C20" s="7">
@@ -2710,10 +2784,10 @@
         <v>12</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" t="s" s="6">
+      <c r="F20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G20" t="s" s="6">
+      <c r="G20" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H20" s="7">
@@ -2729,7 +2803,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="O20" t="s" s="6">
+      <c r="O20" s="6" t="s">
         <v>99</v>
       </c>
       <c r="P20" s="8"/>
@@ -2738,8 +2812,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15.25" customHeight="1">
-      <c r="A21" t="s" s="10">
+    <row r="21" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B21" s="11"/>
@@ -2749,13 +2823,13 @@
       <c r="D21" s="12">
         <v>1</v>
       </c>
-      <c r="E21" t="s" s="10">
+      <c r="E21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F21" t="s" s="10">
+      <c r="F21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G21" t="s" s="10">
+      <c r="G21" s="10" t="s">
         <v>102</v>
       </c>
       <c r="H21" s="12">
@@ -2771,7 +2845,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
-      <c r="O21" t="s" s="10">
+      <c r="O21" s="10" t="s">
         <v>103</v>
       </c>
       <c r="P21" s="11"/>
@@ -2780,11 +2854,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="15.25" customHeight="1">
-      <c r="A22" t="s" s="5">
+    <row r="22" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B22" t="s" s="6">
+      <c r="B22" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C22" s="7">
@@ -2794,10 +2868,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" t="s" s="6">
+      <c r="F22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G22" t="s" s="6">
+      <c r="G22" s="6" t="s">
         <v>107</v>
       </c>
       <c r="H22" s="7">
@@ -2813,7 +2887,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" t="s" s="6">
+      <c r="O22" s="6" t="s">
         <v>108</v>
       </c>
       <c r="P22" s="8"/>
@@ -2822,8 +2896,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="15.25" customHeight="1">
-      <c r="A23" t="s" s="10">
+    <row r="23" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="11"/>
@@ -2833,10 +2907,10 @@
       <c r="D23" s="12">
         <v>7</v>
       </c>
-      <c r="E23" t="s" s="10">
+      <c r="E23" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F23" t="s" s="10">
+      <c r="F23" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G23" s="11"/>
@@ -2854,10 +2928,10 @@
       <c r="M23" s="12">
         <v>1</v>
       </c>
-      <c r="N23" t="s" s="10">
+      <c r="N23" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="O23" t="s" s="10">
+      <c r="O23" s="10" t="s">
         <v>113</v>
       </c>
       <c r="P23" s="11"/>
@@ -2866,11 +2940,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="15.25" customHeight="1">
-      <c r="A24" t="s" s="5">
+    <row r="24" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B24" t="s" s="6">
+      <c r="B24" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="7">
@@ -2880,10 +2954,10 @@
         <v>9</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" t="s" s="6">
+      <c r="F24" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G24" t="s" s="6">
+      <c r="G24" s="6" t="s">
         <v>117</v>
       </c>
       <c r="H24" s="7">
@@ -2897,7 +2971,7 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
-      <c r="O24" t="s" s="6">
+      <c r="O24" s="6" t="s">
         <v>118</v>
       </c>
       <c r="P24" s="8"/>
@@ -2906,11 +2980,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="15.25" customHeight="1">
-      <c r="A25" t="s" s="10">
+    <row r="25" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B25" t="s" s="10">
+      <c r="B25" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C25" s="12">
@@ -2919,13 +2993,13 @@
       <c r="D25" s="12">
         <v>3</v>
       </c>
-      <c r="E25" t="s" s="10">
+      <c r="E25" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F25" t="s" s="10">
+      <c r="F25" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G25" t="s" s="10">
+      <c r="G25" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H25" s="12">
@@ -2939,7 +3013,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
-      <c r="O25" t="s" s="10">
+      <c r="O25" s="10" t="s">
         <v>124</v>
       </c>
       <c r="P25" s="11"/>
@@ -2948,11 +3022,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="15.25" customHeight="1">
-      <c r="A26" t="s" s="5">
+    <row r="26" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B26" t="s" s="6">
+      <c r="B26" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C26" s="7">
@@ -2961,13 +3035,13 @@
       <c r="D26" s="7">
         <v>3</v>
       </c>
-      <c r="E26" t="s" s="6">
+      <c r="E26" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F26" t="s" s="6">
+      <c r="F26" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G26" t="s" s="6">
+      <c r="G26" s="6" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="7">
@@ -2981,15 +3055,15 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
-      <c r="O26" t="s" s="6">
+      <c r="O26" s="6" t="s">
         <v>130</v>
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="9"/>
     </row>
-    <row r="27" ht="15.25" customHeight="1">
-      <c r="A27" t="s" s="10">
+    <row r="27" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B27" s="11"/>
@@ -3000,7 +3074,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="11"/>
-      <c r="F27" t="s" s="10">
+      <c r="F27" s="10" t="s">
         <v>132</v>
       </c>
       <c r="G27" s="11"/>
@@ -3015,19 +3089,19 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
-      <c r="O27" t="s" s="10">
+      <c r="O27" s="10" t="s">
         <v>133</v>
       </c>
       <c r="P27" s="11"/>
-      <c r="Q27" t="s" s="10">
+      <c r="Q27" s="10" t="s">
         <v>134</v>
       </c>
       <c r="R27" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="15.25" customHeight="1">
-      <c r="A28" t="s" s="5">
+    <row r="28" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B28" s="8"/>
@@ -3037,10 +3111,10 @@
       <c r="D28" s="7">
         <v>4</v>
       </c>
-      <c r="E28" t="s" s="6">
+      <c r="E28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F28" t="s" s="6">
+      <c r="F28" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G28" s="8"/>
@@ -3056,41 +3130,63 @@
       <c r="M28" s="7">
         <v>1</v>
       </c>
-      <c r="N28" t="s" s="6">
+      <c r="N28" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O28" t="s" s="6">
+      <c r="O28" s="6" t="s">
         <v>138</v>
       </c>
       <c r="P28" s="8"/>
-      <c r="Q28" t="s" s="6">
+      <c r="Q28" s="6" t="s">
         <v>139</v>
       </c>
       <c r="R28" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="15.25" customHeight="1">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="C29" s="11">
+        <v>2023</v>
+      </c>
+      <c r="D29" s="11">
+        <v>8</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>140</v>
+      </c>
       <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="H29" s="11">
+        <v>1</v>
+      </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="11">
+        <v>1</v>
+      </c>
       <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
+      <c r="M29" s="11">
+        <v>1</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
+      <c r="R29" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" ht="15.25" customHeight="1">
+    <row r="30" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3110,7 +3206,7 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="9"/>
     </row>
-    <row r="31" ht="15.25" customHeight="1">
+    <row r="31" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3130,7 +3226,7 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
     </row>
-    <row r="32" ht="15.25" customHeight="1">
+    <row r="32" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3150,7 +3246,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="9"/>
     </row>
-    <row r="33" ht="15.25" customHeight="1">
+    <row r="33" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3170,7 +3266,7 @@
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
     </row>
-    <row r="34" ht="15.25" customHeight="1">
+    <row r="34" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -3192,32 +3288,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" location="" tooltip="" display="http://www.astro-wakate.org/ss2018/web/link.html"/>
-    <hyperlink ref="O3" r:id="rId2" location="" tooltip="" display="http://web.cc.yamaguchi-u.ac.jp/~rsaito/obscosmo2018/"/>
-    <hyperlink ref="O4" r:id="rId3" location="" tooltip="" display="https://www.asj.or.jp/nenkai/archive/2019a/pdf/U14a.pdf"/>
-    <hyperlink ref="O5" r:id="rId4" location="" tooltip="" display="http://www2.yukawa.kyoto-u.ac.jp/~aud2019/index.php"/>
-    <hyperlink ref="O6" r:id="rId5" location="" tooltip="" display="http://pt-chat-kyoto.sciencesconf.org/"/>
-    <hyperlink ref="O7" r:id="rId6" location="" tooltip="" display="https://www.asj.or.jp/nenkai/archive/2019b/pdf/U20a.pdf"/>
-    <hyperlink ref="O8" r:id="rId7" location="" tooltip="" display="http://indico.ipmu.jp/event/313/overview"/>
-    <hyperlink ref="O11" r:id="rId8" location="" tooltip="" display="http://www.astro-wakate.org/ss2019/web/"/>
-    <hyperlink ref="O13" r:id="rId9" location="" tooltip="" display="http://www.asj.or.jp/nenkai/archive/2020a/pdf/U03a.pdf"/>
-    <hyperlink ref="O14" r:id="rId10" location="" tooltip="" display="http://conference-indico.kek.jp/event/117/timetable/#day-2020-11-04"/>
-    <hyperlink ref="O15" r:id="rId11" location="" tooltip="" display="https://indico.ipmu.jp/event/382/timetable/#all"/>
-    <hyperlink ref="O17" r:id="rId12" location="" tooltip="" display="https://www.kek.jp/ja/conference/20210407-3/"/>
-    <hyperlink ref="O18" r:id="rId13" location="" tooltip="" display="https://www.asj.or.jp/nenkai/archive/2021b/pdf/U05a.pdf"/>
-    <hyperlink ref="O19" r:id="rId14" location="" tooltip="" display="https://sites.google.com/view/obscosmws2021main"/>
-    <hyperlink ref="O20" r:id="rId15" location="" tooltip="" display="https://sites.google.com/view/rironkon2021/"/>
-    <hyperlink ref="O21" r:id="rId16" location="" tooltip="" display="https://subarutelescope.org/Science/SubaruUM/SubaruUM2021/"/>
-    <hyperlink ref="O22" r:id="rId17" location="" tooltip="" display="https://www.jps.or.jp/activities/meetings/annual/annual-index.php"/>
-    <hyperlink ref="O23" r:id="rId18" location="" tooltip="" display="http://astro-osaka.jp/OUTAP/colloquium-abstracts.html#sugiyama"/>
-    <hyperlink ref="O24" r:id="rId19" location="" tooltip="" display="https://www.asj.or.jp/nenkai/archive/2022b/pdf/U15a.pdf"/>
-    <hyperlink ref="O25" r:id="rId20" location="" tooltip="" display="https://www.asj.or.jp/nenkai/archive/2023a/pdf/U20a.pdf"/>
-    <hyperlink ref="O26" r:id="rId21" location="" tooltip="" display="http://gopira.jp/Dthesis2022/program.html"/>
-    <hyperlink ref="O27" r:id="rId22" location="" tooltip="" display="https://hsc-release.mtk.nao.ac.jp/doc/index.php/wly3/"/>
-    <hyperlink ref="O28" r:id="rId23" location="" tooltip="" display="https://www2.yukawa.kyoto-u.ac.jp/~cmb-lss/index.php"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="O14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="O19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="O21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="O23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="O25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="O27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="O29" r:id="rId24" xr:uid="{E65E5BB4-FA6A-9A41-9022-D734C992838F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/talklists/talklist.xlsx
+++ b/talklists/talklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/home/cv/talklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3949DA45-A669-C44D-817A-53100E64D846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBFD71E-843C-774F-B9A6-0105386667F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="156">
   <si>
     <t>title</t>
   </si>
@@ -97,6 +97,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://www.astro-wakate.org/ss2018/web/link.html</t>
     </r>
@@ -120,6 +121,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://web.cc.yamaguchi-u.ac.jp/~rsaito/obscosmo2018/</t>
     </r>
@@ -146,6 +148,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.asj.or.jp/nenkai/archive/2019a/pdf/U14a.pdf</t>
     </r>
@@ -166,6 +169,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://www2.yukawa.kyoto-u.ac.jp/~aud2019/index.php</t>
     </r>
@@ -183,6 +187,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://pt-chat-kyoto.sciencesconf.org/</t>
     </r>
@@ -209,6 +214,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.asj.or.jp/nenkai/archive/2019b/pdf/U20a.pdf</t>
     </r>
@@ -229,6 +235,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://indico.ipmu.jp/event/313/overview</t>
     </r>
@@ -270,6 +277,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://www.astro-wakate.org/ss2019/web/</t>
     </r>
@@ -305,6 +313,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://www.asj.or.jp/nenkai/archive/2020a/pdf/U03a.pdf</t>
     </r>
@@ -331,6 +340,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://conference-indico.kek.jp/event/117/timetable/#day-2020-11-04</t>
     </r>
@@ -354,6 +364,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://indico.ipmu.jp/event/382/timetable/#all</t>
     </r>
@@ -380,6 +391,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.kek.jp/ja/conference/20210407-3/</t>
     </r>
@@ -403,6 +415,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.asj.or.jp/nenkai/archive/2021b/pdf/U05a.pdf</t>
     </r>
@@ -420,6 +433,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://sites.google.com/view/obscosmws2021main</t>
     </r>
@@ -437,6 +451,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://sites.google.com/view/rironkon2021/</t>
     </r>
@@ -457,6 +472,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://subarutelescope.org/Science/SubaruUM/SubaruUM2021/</t>
     </r>
@@ -480,6 +496,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.jps.or.jp/activities/meetings/annual/annual-index.php</t>
     </r>
@@ -503,6 +520,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://astro-osaka.jp/OUTAP/colloquium-abstracts.html#sugiyama</t>
     </r>
@@ -526,6 +544,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.asj.or.jp/nenkai/archive/2022b/pdf/U15a.pdf</t>
     </r>
@@ -552,6 +571,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.asj.or.jp/nenkai/archive/2023a/pdf/U20a.pdf</t>
     </r>
@@ -578,6 +598,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://gopira.jp/Dthesis2022/program.html</t>
     </r>
@@ -595,6 +616,7 @@
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://hsc-release.mtk.nao.ac.jp/doc/index.php/wly3/</t>
     </r>
@@ -618,6 +640,7 @@
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www2.yukawa.kyoto-u.ac.jp/~cmb-lss/index.php</t>
     </r>
@@ -639,6 +662,39 @@
   </si>
   <si>
     <t>Jacques Dumarchez</t>
+  </si>
+  <si>
+    <t>NAOJ</t>
+  </si>
+  <si>
+    <t>Subaru Users Meeting FY2023</t>
+  </si>
+  <si>
+    <t>https://www.subarutelescope.org/Science/SubaruUM/SubaruUM2023/index.html</t>
+  </si>
+  <si>
+    <t>Cosmology from Subaru HSC weak lensing Year 3 data</t>
+  </si>
+  <si>
+    <t>Cosmology from weak lensing three-point correlation function</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>astro/cosmo seminar at CMU</t>
+  </si>
+  <si>
+    <t>Xiangchong Li</t>
+  </si>
+  <si>
+    <t>HSC Y3 weak lensing cosmology results</t>
+  </si>
+  <si>
+    <t>CosmoPalooza</t>
+  </si>
+  <si>
+    <t>Shared session with Markus, Xiangchong and Tomomi</t>
   </si>
 </sst>
 </file>
@@ -656,12 +712,14 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -670,16 +728,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -817,9 +876,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -839,8 +898,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1972,15 +2038,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="1" max="1" width="82.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="114.6640625" style="1" customWidth="1"/>
     <col min="3" max="5" width="22.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="67.33203125" style="1" customWidth="1"/>
@@ -2170,9 +2237,7 @@
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="13">
-        <v>1</v>
-      </c>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -2284,9 +2349,7 @@
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="12">
-        <v>1</v>
-      </c>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -2436,9 +2499,7 @@
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="12">
-        <v>1</v>
-      </c>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -2476,9 +2537,7 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="13">
-        <v>1</v>
-      </c>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -2642,9 +2701,7 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="13">
-        <v>1</v>
-      </c>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -2808,9 +2865,7 @@
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="13">
-        <v>1</v>
-      </c>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
@@ -2892,9 +2947,7 @@
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="13">
-        <v>1</v>
-      </c>
+      <c r="R22" s="13"/>
     </row>
     <row r="23" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -2976,9 +3029,7 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="13">
-        <v>1</v>
-      </c>
+      <c r="R24" s="13"/>
     </row>
     <row r="25" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -3018,9 +3069,7 @@
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="12">
-        <v>1</v>
-      </c>
+      <c r="R25" s="12"/>
     </row>
     <row r="26" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
@@ -3145,7 +3194,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="20" t="s">
         <v>142</v>
       </c>
       <c r="B29" s="11"/>
@@ -3177,114 +3226,186 @@
       <c r="N29" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="O29" s="20" t="s">
+      <c r="O29" s="19" t="s">
         <v>143</v>
       </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
-      <c r="R29" s="11">
-        <v>1</v>
-      </c>
+      <c r="R29" s="11"/>
     </row>
     <row r="30" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="9"/>
+      <c r="A30" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24">
+        <v>2023</v>
+      </c>
+      <c r="D30" s="24">
+        <v>10</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24">
+        <v>1</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24">
+        <v>1</v>
+      </c>
+      <c r="K30" s="24">
+        <v>1</v>
+      </c>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="R30" s="27">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
+      <c r="A31" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8">
+        <v>2024</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="9"/>
     </row>
     <row r="32" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="9"/>
+      <c r="A32" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D32" s="11">
+        <v>2</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11">
+        <v>1</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="9"/>
     </row>
     <row r="34" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="17"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3312,6 +3433,8 @@
     <hyperlink ref="O27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="O28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="O29" r:id="rId24" xr:uid="{E65E5BB4-FA6A-9A41-9022-D734C992838F}"/>
+    <hyperlink ref="O31" r:id="rId25" xr:uid="{BE16B005-63EB-2146-AB7E-E60C44889EFC}"/>
+    <hyperlink ref="O30" r:id="rId26" xr:uid="{86A01E5A-8DA1-6B49-9651-0D71C5894E40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/talklists/talklist.xlsx
+++ b/talklists/talklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/home/cv/talklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBFD71E-843C-774F-B9A6-0105386667F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FD6143-2A29-C548-9E71-E96B4A27FBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="165">
   <si>
     <t>title</t>
   </si>
@@ -695,6 +695,33 @@
   </si>
   <si>
     <t>Shared session with Markus, Xiangchong and Tomomi</t>
+  </si>
+  <si>
+    <t>Uminnesota</t>
+  </si>
+  <si>
+    <t>MIfA colloquium</t>
+  </si>
+  <si>
+    <t>Liliya Williams and Shaul Hanany</t>
+  </si>
+  <si>
+    <t>https://cse.umn.edu/physics/minnesota-institute-astrophysics-mifa-colloquium</t>
+  </si>
+  <si>
+    <t>Oguri-san recommended me as a speaker for HSC Y3 weak lensing cosmology</t>
+  </si>
+  <si>
+    <t>https://cd3.ipmu.jp/opening/</t>
+  </si>
+  <si>
+    <t>CD3 Opening Symposium</t>
+  </si>
+  <si>
+    <t>Collaborative coding: git and github</t>
+  </si>
+  <si>
+    <t>Gave lecture with Xuheng Ding</t>
   </si>
 </sst>
 </file>
@@ -878,7 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -893,7 +920,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -907,6 +933,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2038,11 +2066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R27" sqref="R27"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3194,218 +3222,277 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11">
+      <c r="A29" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7">
         <v>2023</v>
       </c>
-      <c r="D29" s="11">
-        <v>8</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11">
-        <v>1</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11">
-        <v>1</v>
-      </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11">
-        <v>1</v>
-      </c>
-      <c r="N29" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="R29" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24">
+      <c r="A30" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11">
         <v>2023</v>
       </c>
-      <c r="D30" s="24">
-        <v>10</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24">
-        <v>1</v>
-      </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24">
-        <v>1</v>
-      </c>
-      <c r="K30" s="24">
-        <v>1</v>
-      </c>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="26" t="s">
+      <c r="D30" s="11">
+        <v>8</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11">
+        <v>1</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11">
+        <v>1</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11">
+        <v>1</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O30" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="R30" s="27">
-        <v>1</v>
-      </c>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8">
-        <v>2024</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8">
-        <v>1</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8">
-        <v>1</v>
-      </c>
-      <c r="K31" s="8">
-        <v>1</v>
-      </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="9"/>
+      <c r="A31" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23">
+        <v>2023</v>
+      </c>
+      <c r="D31" s="23">
+        <v>10</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23">
+        <v>1</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23">
+        <v>1</v>
+      </c>
+      <c r="K31" s="23">
+        <v>1</v>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R31" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11">
+      <c r="A32" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8">
         <v>2024</v>
       </c>
-      <c r="D32" s="11">
-        <v>2</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11">
-        <v>1</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11">
-        <v>1</v>
-      </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="9"/>
     </row>
     <row r="33" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="9"/>
+      <c r="A33" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D33" s="11">
+        <v>2</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11">
+        <v>1</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11">
+        <v>1</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
+      <c r="A34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8">
+        <v>2024</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8">
+        <v>1</v>
+      </c>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8">
+        <v>1</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="R34" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="17"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3432,9 +3519,11 @@
     <hyperlink ref="O26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="O27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="O28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="O29" r:id="rId24" xr:uid="{E65E5BB4-FA6A-9A41-9022-D734C992838F}"/>
-    <hyperlink ref="O31" r:id="rId25" xr:uid="{BE16B005-63EB-2146-AB7E-E60C44889EFC}"/>
-    <hyperlink ref="O30" r:id="rId26" xr:uid="{86A01E5A-8DA1-6B49-9651-0D71C5894E40}"/>
+    <hyperlink ref="O30" r:id="rId24" xr:uid="{E65E5BB4-FA6A-9A41-9022-D734C992838F}"/>
+    <hyperlink ref="O32" r:id="rId25" xr:uid="{BE16B005-63EB-2146-AB7E-E60C44889EFC}"/>
+    <hyperlink ref="O31" r:id="rId26" xr:uid="{86A01E5A-8DA1-6B49-9651-0D71C5894E40}"/>
+    <hyperlink ref="O34" r:id="rId27" xr:uid="{F278CA5F-70C1-244D-8F8F-D544334D6DA0}"/>
+    <hyperlink ref="O29" r:id="rId28" xr:uid="{355E5364-5F3C-FA46-9141-89019E4CF3B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/talklists/talklist.xlsx
+++ b/talklists/talklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/home/cv/talklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FD6143-2A29-C548-9E71-E96B4A27FBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B5FBFA-8FEE-5C4D-997C-B954EF3D1CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="169">
   <si>
     <t>title</t>
   </si>
@@ -722,6 +722,18 @@
   </si>
   <si>
     <t>Gave lecture with Xuheng Ding</t>
+  </si>
+  <si>
+    <t>Euclid WLSWG Telecon</t>
+  </si>
+  <si>
+    <t>DESC WL telecon</t>
+  </si>
+  <si>
+    <t>DESC overall telecon</t>
+  </si>
+  <si>
+    <t>DESI seminar telecon</t>
   </si>
 </sst>
 </file>
@@ -768,7 +780,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -791,6 +803,18 @@
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -905,7 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -924,7 +948,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
@@ -935,6 +958,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2066,16 +2103,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E28" sqref="E28"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="82.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="65.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="114.6640625" style="1" customWidth="1"/>
     <col min="3" max="5" width="22.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="67.33203125" style="1" customWidth="1"/>
@@ -3140,7 +3177,7 @@
       <c r="R26" s="9"/>
     </row>
     <row r="27" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="28" t="s">
         <v>131</v>
       </c>
       <c r="B27" s="11"/>
@@ -3178,7 +3215,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="35" t="s">
         <v>135</v>
       </c>
       <c r="B28" s="8"/>
@@ -3221,278 +3258,408 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:18" s="34" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31">
+        <v>2023</v>
+      </c>
+      <c r="D29" s="31">
+        <v>4</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30">
+        <v>1</v>
+      </c>
+      <c r="K29" s="31">
+        <v>1</v>
+      </c>
+      <c r="L29" s="30"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="33"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7">
+      <c r="B30" s="8"/>
+      <c r="C30" s="7">
         <v>2023</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D30" s="7">
         <v>4</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="7">
-        <v>1</v>
-      </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="28" t="s">
+      <c r="G30" s="8"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="27" t="s">
+      <c r="P30" s="8"/>
+      <c r="Q30" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="R29" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11">
+      <c r="R30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="34" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31">
         <v>2023</v>
       </c>
-      <c r="D30" s="11">
-        <v>8</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11">
-        <v>1</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11">
-        <v>1</v>
-      </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11">
-        <v>1</v>
-      </c>
-      <c r="N30" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="O30" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23">
+      <c r="D31" s="31">
+        <v>5</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30">
+        <v>1</v>
+      </c>
+      <c r="K31" s="31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="30"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="33"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7">
         <v>2023</v>
       </c>
-      <c r="D31" s="23">
-        <v>10</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23">
-        <v>1</v>
-      </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23">
-        <v>1</v>
-      </c>
-      <c r="K31" s="23">
-        <v>1</v>
-      </c>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="R31" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8">
-        <v>2024</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>146</v>
+      <c r="D32" s="7">
+        <v>5</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="8">
-        <v>1</v>
-      </c>
+      <c r="H32" s="7"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8">
         <v>1</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="7">
         <v>1</v>
       </c>
       <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="21" t="s">
+      <c r="M32" s="7"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="13"/>
+    </row>
+    <row r="33" spans="1:18" s="34" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31">
+        <v>2023</v>
+      </c>
+      <c r="D33" s="31">
+        <v>6</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="30">
+        <v>1</v>
+      </c>
+      <c r="J33" s="30">
+        <v>1</v>
+      </c>
+      <c r="K33" s="31">
+        <v>1</v>
+      </c>
+      <c r="L33" s="30"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="33"/>
+    </row>
+    <row r="34" spans="1:18" s="41" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38">
+        <v>2023</v>
+      </c>
+      <c r="D34" s="38">
+        <v>8</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38">
+        <v>1</v>
+      </c>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38">
+        <v>1</v>
+      </c>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38">
+        <v>1</v>
+      </c>
+      <c r="N34" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="O34" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22">
+        <v>2023</v>
+      </c>
+      <c r="D35" s="22">
+        <v>10</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22">
+        <v>1</v>
+      </c>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22">
+        <v>1</v>
+      </c>
+      <c r="K35" s="22">
+        <v>1</v>
+      </c>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="R35" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8">
+        <v>2024</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8">
+        <v>1</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8">
+        <v>1</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="9"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="9"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11">
         <v>2024</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D37" s="11">
         <v>2</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E37" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F37" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11">
-        <v>1</v>
-      </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11">
-        <v>1</v>
-      </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="17" t="s">
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11">
+        <v>1</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11">
+        <v>1</v>
+      </c>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8">
         <v>2024</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D38" s="8">
         <v>5</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E38" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F38" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8">
-        <v>1</v>
-      </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8">
-        <v>1</v>
-      </c>
-      <c r="N34" s="17" t="s">
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8">
+        <v>1</v>
+      </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8">
+        <v>1</v>
+      </c>
+      <c r="N38" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="O34" s="21" t="s">
+      <c r="O38" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="20" t="s">
+      <c r="P38" s="8"/>
+      <c r="Q38" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="R34" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="16"/>
+      <c r="R38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3519,11 +3686,11 @@
     <hyperlink ref="O26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="O27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="O28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="O30" r:id="rId24" xr:uid="{E65E5BB4-FA6A-9A41-9022-D734C992838F}"/>
-    <hyperlink ref="O32" r:id="rId25" xr:uid="{BE16B005-63EB-2146-AB7E-E60C44889EFC}"/>
-    <hyperlink ref="O31" r:id="rId26" xr:uid="{86A01E5A-8DA1-6B49-9651-0D71C5894E40}"/>
-    <hyperlink ref="O34" r:id="rId27" xr:uid="{F278CA5F-70C1-244D-8F8F-D544334D6DA0}"/>
-    <hyperlink ref="O29" r:id="rId28" xr:uid="{355E5364-5F3C-FA46-9141-89019E4CF3B7}"/>
+    <hyperlink ref="O34" r:id="rId24" xr:uid="{E65E5BB4-FA6A-9A41-9022-D734C992838F}"/>
+    <hyperlink ref="O36" r:id="rId25" xr:uid="{BE16B005-63EB-2146-AB7E-E60C44889EFC}"/>
+    <hyperlink ref="O35" r:id="rId26" xr:uid="{86A01E5A-8DA1-6B49-9651-0D71C5894E40}"/>
+    <hyperlink ref="O38" r:id="rId27" xr:uid="{F278CA5F-70C1-244D-8F8F-D544334D6DA0}"/>
+    <hyperlink ref="O30" r:id="rId28" xr:uid="{355E5364-5F3C-FA46-9141-89019E4CF3B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/talklists/talklist.xlsx
+++ b/talklists/talklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/home/cv/talklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B5FBFA-8FEE-5C4D-997C-B954EF3D1CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6D9CC-48AE-8740-B6E1-D771F649FDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/talklists/talklist.xlsx
+++ b/talklists/talklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/home/cv/talklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6D9CC-48AE-8740-B6E1-D771F649FDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0922C46-EBF8-4B45-9221-A29FF0D8FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="183">
   <si>
     <t>title</t>
   </si>
@@ -734,6 +734,48 @@
   </si>
   <si>
     <t>DESI seminar telecon</t>
+  </si>
+  <si>
+    <t>Exploring Primordial Black Hole with Microlensing Data</t>
+  </si>
+  <si>
+    <t>Pacific conference</t>
+  </si>
+  <si>
+    <t>Alex Kusenko</t>
+  </si>
+  <si>
+    <t>https://pacific-conference.pa.ucla.edu/index.html</t>
+  </si>
+  <si>
+    <t>Focus week on primordial black holes 2024</t>
+  </si>
+  <si>
+    <t>https://indico.ipmu.jp/event/439/overview</t>
+  </si>
+  <si>
+    <t>Exploring Primordial Black Hole with Microlensing Data: Updates on Analysis Pipeline</t>
+  </si>
+  <si>
+    <t>UPenn CfPC workshop</t>
+  </si>
+  <si>
+    <t>UPenn</t>
+  </si>
+  <si>
+    <t>Allice, Valerio, Mengxiang</t>
+  </si>
+  <si>
+    <t>Cosmology with third-order shear statistics</t>
+  </si>
+  <si>
+    <t>Pasadena</t>
+  </si>
+  <si>
+    <t>UC Richard Gump Research Station</t>
+  </si>
+  <si>
+    <t>Roman F2F meeting</t>
   </si>
 </sst>
 </file>
@@ -929,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -944,7 +986,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -972,6 +1013,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2103,11 +2149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3177,7 +3223,7 @@
       <c r="R26" s="9"/>
     </row>
     <row r="27" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B27" s="11"/>
@@ -3215,7 +3261,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="34" t="s">
         <v>135</v>
       </c>
       <c r="B28" s="8"/>
@@ -3258,40 +3304,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="34" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
+    <row r="29" spans="1:18" s="33" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30">
         <v>2023</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="30">
         <v>4</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="29" t="s">
+      <c r="E29" s="31"/>
+      <c r="F29" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30">
-        <v>1</v>
-      </c>
-      <c r="K29" s="31">
-        <v>1</v>
-      </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="33"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="30">
+        <v>1</v>
+      </c>
+      <c r="L29" s="29"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="32"/>
     </row>
     <row r="30" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B30" s="8"/>
@@ -3301,10 +3347,10 @@
       <c r="D30" s="7">
         <v>4</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="25" t="s">
         <v>162</v>
       </c>
       <c r="G30" s="8"/>
@@ -3317,51 +3363,51 @@
       <c r="L30" s="8"/>
       <c r="M30" s="7"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="27" t="s">
+      <c r="O30" s="26" t="s">
         <v>161</v>
       </c>
       <c r="P30" s="8"/>
-      <c r="Q30" s="26" t="s">
+      <c r="Q30" s="25" t="s">
         <v>164</v>
       </c>
       <c r="R30" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="34" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
+    <row r="31" spans="1:18" s="33" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31">
+      <c r="B31" s="29"/>
+      <c r="C31" s="30">
         <v>2023</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="30">
         <v>5</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29" t="s">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30">
-        <v>1</v>
-      </c>
-      <c r="K31" s="31">
-        <v>1</v>
-      </c>
-      <c r="L31" s="30"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="33"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29">
+        <v>1</v>
+      </c>
+      <c r="K31" s="30">
+        <v>1</v>
+      </c>
+      <c r="L31" s="29"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="32"/>
     </row>
     <row r="32" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="8"/>
@@ -3371,8 +3417,8 @@
       <c r="D32" s="7">
         <v>5</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26" t="s">
+      <c r="E32" s="25"/>
+      <c r="F32" s="25" t="s">
         <v>167</v>
       </c>
       <c r="G32" s="8"/>
@@ -3387,127 +3433,127 @@
       <c r="L32" s="8"/>
       <c r="M32" s="7"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="27"/>
+      <c r="O32" s="26"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="26"/>
+      <c r="Q32" s="25"/>
       <c r="R32" s="13"/>
     </row>
-    <row r="33" spans="1:18" s="34" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
+    <row r="33" spans="1:18" s="33" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31">
+      <c r="B33" s="29"/>
+      <c r="C33" s="30">
         <v>2023</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="30">
         <v>6</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29" t="s">
+      <c r="E33" s="28"/>
+      <c r="F33" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="30">
-        <v>1</v>
-      </c>
-      <c r="J33" s="30">
-        <v>1</v>
-      </c>
-      <c r="K33" s="31">
-        <v>1</v>
-      </c>
-      <c r="L33" s="30"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="33"/>
-    </row>
-    <row r="34" spans="1:18" s="41" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="29">
+        <v>1</v>
+      </c>
+      <c r="J33" s="29">
+        <v>1</v>
+      </c>
+      <c r="K33" s="30">
+        <v>1</v>
+      </c>
+      <c r="L33" s="29"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="32"/>
+    </row>
+    <row r="34" spans="1:18" s="40" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38">
+      <c r="B34" s="37"/>
+      <c r="C34" s="37">
         <v>2023</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="37">
         <v>8</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38">
-        <v>1</v>
-      </c>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38">
-        <v>1</v>
-      </c>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38">
-        <v>1</v>
-      </c>
-      <c r="N34" s="39" t="s">
+      <c r="G34" s="37"/>
+      <c r="H34" s="37">
+        <v>1</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37">
+        <v>1</v>
+      </c>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37">
+        <v>1</v>
+      </c>
+      <c r="N34" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="O34" s="40" t="s">
+      <c r="O34" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
     </row>
     <row r="35" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21">
         <v>2023</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>10</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23" t="s">
+      <c r="E35" s="22"/>
+      <c r="F35" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22">
-        <v>1</v>
-      </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22">
-        <v>1</v>
-      </c>
-      <c r="K35" s="22">
-        <v>1</v>
-      </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="24" t="s">
+      <c r="G35" s="21"/>
+      <c r="H35" s="21">
+        <v>1</v>
+      </c>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21">
+        <v>1</v>
+      </c>
+      <c r="K35" s="21">
+        <v>1</v>
+      </c>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="23" t="s">
+      <c r="P35" s="21"/>
+      <c r="Q35" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="R35" s="25">
+      <c r="R35" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>148</v>
       </c>
       <c r="B36" s="8"/>
@@ -3517,10 +3563,10 @@
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="18" t="s">
         <v>146</v>
       </c>
       <c r="G36" s="8"/>
@@ -3537,15 +3583,17 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
-      <c r="O36" s="20" t="s">
+      <c r="O36" s="19" t="s">
         <v>147</v>
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
-      <c r="R36" s="9"/>
+      <c r="R36" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>149</v>
       </c>
       <c r="B37" s="11"/>
@@ -3555,10 +3603,10 @@
       <c r="D37" s="11">
         <v>2</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="16" t="s">
         <v>151</v>
       </c>
       <c r="G37" s="11"/>
@@ -3572,16 +3620,18 @@
       </c>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="17" t="s">
+      <c r="N37" s="16" t="s">
         <v>152</v>
       </c>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
+      <c r="R37" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>148</v>
       </c>
       <c r="B38" s="8"/>
@@ -3591,10 +3641,10 @@
       <c r="D38" s="8">
         <v>5</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="18" t="s">
         <v>157</v>
       </c>
       <c r="G38" s="8"/>
@@ -3608,14 +3658,14 @@
       <c r="M38" s="8">
         <v>1</v>
       </c>
-      <c r="N38" s="17" t="s">
+      <c r="N38" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="O38" s="20" t="s">
+      <c r="O38" s="19" t="s">
         <v>159</v>
       </c>
       <c r="P38" s="8"/>
-      <c r="Q38" s="19" t="s">
+      <c r="Q38" s="18" t="s">
         <v>160</v>
       </c>
       <c r="R38" s="9">
@@ -3623,43 +3673,160 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
+      <c r="A39" s="16" t="s">
+        <v>169</v>
+      </c>
       <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="C39" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D39" s="11">
+        <v>8</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>170</v>
+      </c>
       <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="H39" s="11">
+        <v>1</v>
+      </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
+      <c r="K39" s="11">
+        <v>1</v>
+      </c>
       <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="O39" s="11"/>
+      <c r="M39" s="11">
+        <v>1</v>
+      </c>
+      <c r="N39" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="O39" s="42" t="s">
+        <v>172</v>
+      </c>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
+      <c r="R39" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="16"/>
+      <c r="A40" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21">
+        <v>2024</v>
+      </c>
+      <c r="D40" s="21">
+        <v>10</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21">
+        <v>1</v>
+      </c>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21">
+        <v>2024</v>
+      </c>
+      <c r="D41" s="21">
+        <v>11</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21">
+        <v>1</v>
+      </c>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21">
+        <v>1</v>
+      </c>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="O41" s="23"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14">
+        <v>2024</v>
+      </c>
+      <c r="D42" s="14">
+        <v>11</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14">
+        <v>1</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14">
+        <v>1</v>
+      </c>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14">
+        <v>1</v>
+      </c>
+      <c r="N42" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="15">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3691,6 +3858,7 @@
     <hyperlink ref="O35" r:id="rId26" xr:uid="{86A01E5A-8DA1-6B49-9651-0D71C5894E40}"/>
     <hyperlink ref="O38" r:id="rId27" xr:uid="{F278CA5F-70C1-244D-8F8F-D544334D6DA0}"/>
     <hyperlink ref="O30" r:id="rId28" xr:uid="{355E5364-5F3C-FA46-9141-89019E4CF3B7}"/>
+    <hyperlink ref="O39" r:id="rId29" xr:uid="{C5D9AC31-DFAA-B44A-A853-C21314623C5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/talklists/talklist.xlsx
+++ b/talklists/talklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/home/cv/talklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0922C46-EBF8-4B45-9221-A29FF0D8FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBA0929-2903-EE4B-BCA6-FB2D7AA2FDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2151,14 +2151,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T38" sqref="T38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="114.6640625" style="1" customWidth="1"/>
     <col min="3" max="5" width="22.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="67.33203125" style="1" customWidth="1"/>
@@ -2271,7 +2271,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11"/>

--- a/talklists/talklist.xlsx
+++ b/talklists/talklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/home/cv/talklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBA0929-2903-EE4B-BCA6-FB2D7AA2FDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA311CE-EC73-7742-9BA8-B18F9F6E7B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="187">
   <si>
     <t>title</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Review of new BAO reconstruction method</t>
-  </si>
-  <si>
-    <t>Toyohashi</t>
   </si>
   <si>
     <t>2018天文・天体物理若手夏の学校</t>
@@ -106,9 +103,6 @@
     <t>Wave effect on PBH micro-lensing and constraintWave effect on PBH micro-lensing and constraint</t>
   </si>
   <si>
-    <t>Yamaguchi</t>
-  </si>
-  <si>
     <t>第７回観測的宇宙論ワークショップ</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>On the wave effect of PBH microlensing in the observation of the M31 stars</t>
   </si>
   <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
     <t>天文学会2019年春季年会</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>Validation of PT-based method for cosmology analysis of wide field galaxy survey data</t>
   </si>
   <si>
-    <t>Kumamoto U</t>
-  </si>
-  <si>
     <t>天文学会2019年秋季年会</t>
   </si>
   <si>
@@ -244,9 +232,6 @@
     <t>Constraints on Primordial Black Holes with Microlensing</t>
   </si>
   <si>
-    <t>Hirosaki U</t>
-  </si>
-  <si>
     <t>Informal seminar at Takahashi and Asada Labs</t>
   </si>
   <si>
@@ -776,6 +761,33 @@
   </si>
   <si>
     <t>Roman F2F meeting</t>
+  </si>
+  <si>
+    <t>Kyoto University</t>
+  </si>
+  <si>
+    <t>Yamaguchi University</t>
+  </si>
+  <si>
+    <t>Aichi, JP</t>
+  </si>
+  <si>
+    <t>Kumamoto University</t>
+  </si>
+  <si>
+    <t>Hirosaki University</t>
+  </si>
+  <si>
+    <t>Niigata U</t>
+  </si>
+  <si>
+    <t>Okayama U</t>
+  </si>
+  <si>
+    <t>Tsukuba U</t>
+  </si>
+  <si>
+    <t>Hosei U</t>
   </si>
 </sst>
 </file>
@@ -2152,8 +2164,8 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2243,14 +2255,14 @@
       <c r="D2" s="7">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
@@ -2264,7 +2276,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -2272,7 +2284,7 @@
     </row>
     <row r="3" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12">
@@ -2281,14 +2293,14 @@
       <c r="D3" s="12">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="H3" s="12">
         <v>1</v>
@@ -2302,7 +2314,7 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -2312,10 +2324,10 @@
     </row>
     <row r="4" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7">
         <v>2019</v>
@@ -2323,14 +2335,14 @@
       <c r="D4" s="7">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
+      <c r="E4" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2344,7 +2356,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -2352,7 +2364,7 @@
     </row>
     <row r="5" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
@@ -2361,11 +2373,11 @@
       <c r="D5" s="12">
         <v>3</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>36</v>
+      <c r="E5" s="27" t="s">
+        <v>178</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
@@ -2380,7 +2392,7 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -2388,7 +2400,7 @@
     </row>
     <row r="6" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="7">
@@ -2397,11 +2409,11 @@
       <c r="D6" s="7">
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>36</v>
+      <c r="E6" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="7">
@@ -2416,7 +2428,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
@@ -2424,10 +2436,10 @@
     </row>
     <row r="7" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="12">
         <v>2019</v>
@@ -2435,14 +2447,14 @@
       <c r="D7" s="12">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>44</v>
+      <c r="E7" s="27" t="s">
+        <v>181</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H7" s="12">
         <v>1</v>
@@ -2456,7 +2468,7 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -2464,7 +2476,7 @@
     </row>
     <row r="8" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="7">
@@ -2473,11 +2485,11 @@
       <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>49</v>
+      <c r="E8" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
@@ -2492,7 +2504,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
@@ -2500,7 +2512,7 @@
     </row>
     <row r="9" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="12">
@@ -2509,11 +2521,11 @@
       <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>53</v>
+      <c r="E9" s="27" t="s">
+        <v>182</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -2527,7 +2539,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -2536,10 +2548,10 @@
     </row>
     <row r="10" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" s="7">
         <v>2020</v>
@@ -2547,11 +2559,11 @@
       <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -2574,10 +2586,10 @@
     </row>
     <row r="11" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C11" s="12">
         <v>2020</v>
@@ -2585,14 +2597,14 @@
       <c r="D11" s="12">
         <v>8</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>20</v>
+      <c r="E11" s="27" t="s">
+        <v>180</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="12">
         <v>1</v>
@@ -2606,7 +2618,7 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -2614,7 +2626,7 @@
     </row>
     <row r="12" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="7">
@@ -2623,11 +2635,11 @@
       <c r="D12" s="7">
         <v>8</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>64</v>
+      <c r="E12" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -2643,7 +2655,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -2652,10 +2664,10 @@
     </row>
     <row r="13" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C13" s="12">
         <v>2020</v>
@@ -2663,12 +2675,14 @@
       <c r="D13" s="12">
         <v>3</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="16" t="s">
+        <v>185</v>
+      </c>
       <c r="F13" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H13" s="12">
         <v>1</v>
@@ -2682,17 +2696,17 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="7">
@@ -2702,10 +2716,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
@@ -2723,10 +2737,10 @@
         <v>1</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
@@ -2736,10 +2750,10 @@
     </row>
     <row r="15" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C15" s="12">
         <v>2020</v>
@@ -2747,12 +2761,14 @@
       <c r="D15" s="12">
         <v>11</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10" t="s">
-        <v>80</v>
+      <c r="E15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H15" s="12">
         <v>1</v>
@@ -2768,7 +2784,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -2778,7 +2794,7 @@
     </row>
     <row r="16" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="7">
@@ -2788,10 +2804,10 @@
         <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2807,7 +2823,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -2816,7 +2832,7 @@
     </row>
     <row r="17" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="12">
@@ -2826,10 +2842,10 @@
         <v>4</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -2845,10 +2861,10 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -2858,10 +2874,10 @@
     </row>
     <row r="18" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C18" s="7">
         <v>2021</v>
@@ -2869,12 +2885,14 @@
       <c r="D18" s="7">
         <v>9</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="F18" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2890,7 +2908,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
@@ -2900,10 +2918,10 @@
     </row>
     <row r="19" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C19" s="12">
         <v>2021</v>
@@ -2911,12 +2929,14 @@
       <c r="D19" s="12">
         <v>11</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="F19" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H19" s="12">
         <v>1</v>
@@ -2932,7 +2952,7 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -2940,10 +2960,10 @@
     </row>
     <row r="20" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C20" s="7">
         <v>2021</v>
@@ -2951,12 +2971,14 @@
       <c r="D20" s="7">
         <v>12</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="F20" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2972,7 +2994,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
@@ -2980,7 +3002,7 @@
     </row>
     <row r="21" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="12">
@@ -2990,13 +3012,13 @@
         <v>1</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H21" s="12">
         <v>1</v>
@@ -3012,7 +3034,7 @@
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
@@ -3022,10 +3044,10 @@
     </row>
     <row r="22" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C22" s="7">
         <v>2022</v>
@@ -3033,12 +3055,14 @@
       <c r="D22" s="7">
         <v>3</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="F22" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3054,7 +3078,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
@@ -3062,7 +3086,7 @@
     </row>
     <row r="23" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="12">
@@ -3072,10 +3096,10 @@
         <v>7</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -3093,10 +3117,10 @@
         <v>1</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -3106,10 +3130,10 @@
     </row>
     <row r="24" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C24" s="7">
         <v>2022</v>
@@ -3117,12 +3141,14 @@
       <c r="D24" s="7">
         <v>9</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6" t="s">
-        <v>116</v>
+      <c r="E24" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3136,7 +3162,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
@@ -3144,10 +3170,10 @@
     </row>
     <row r="25" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C25" s="12">
         <v>2023</v>
@@ -3156,13 +3182,13 @@
         <v>3</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H25" s="12">
         <v>1</v>
@@ -3176,7 +3202,7 @@
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -3184,10 +3210,10 @@
     </row>
     <row r="26" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C26" s="7">
         <v>2023</v>
@@ -3196,13 +3222,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3216,7 +3242,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
@@ -3224,7 +3250,7 @@
     </row>
     <row r="27" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12">
@@ -3233,9 +3259,11 @@
       <c r="D27" s="12">
         <v>4</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="F27" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -3250,11 +3278,11 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R27" s="12">
         <v>1</v>
@@ -3262,7 +3290,7 @@
     </row>
     <row r="28" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="7">
@@ -3272,10 +3300,10 @@
         <v>4</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
@@ -3291,14 +3319,14 @@
         <v>1</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="R28" s="13">
         <v>1</v>
@@ -3306,7 +3334,7 @@
     </row>
     <row r="29" spans="1:18" s="33" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="30">
@@ -3315,9 +3343,11 @@
       <c r="D29" s="30">
         <v>4</v>
       </c>
-      <c r="E29" s="31"/>
+      <c r="E29" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="F29" s="28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="30"/>
@@ -3338,7 +3368,7 @@
     </row>
     <row r="30" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="7">
@@ -3348,10 +3378,10 @@
         <v>4</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="7"/>
@@ -3364,11 +3394,11 @@
       <c r="M30" s="7"/>
       <c r="N30" s="6"/>
       <c r="O30" s="26" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="R30" s="13">
         <v>1</v>
@@ -3376,7 +3406,7 @@
     </row>
     <row r="31" spans="1:18" s="33" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="30">
@@ -3385,9 +3415,11 @@
       <c r="D31" s="30">
         <v>5</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="F31" s="28" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="30"/>
@@ -3408,7 +3440,7 @@
     </row>
     <row r="32" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="7">
@@ -3417,9 +3449,11 @@
       <c r="D32" s="7">
         <v>5</v>
       </c>
-      <c r="E32" s="25"/>
+      <c r="E32" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="F32" s="25" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="7"/>
@@ -3440,7 +3474,7 @@
     </row>
     <row r="33" spans="1:18" s="33" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="30">
@@ -3449,9 +3483,11 @@
       <c r="D33" s="30">
         <v>6</v>
       </c>
-      <c r="E33" s="28"/>
+      <c r="E33" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="F33" s="28" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="30"/>
@@ -3474,7 +3510,7 @@
     </row>
     <row r="34" spans="1:18" s="40" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B34" s="37"/>
       <c r="C34" s="37">
@@ -3484,10 +3520,10 @@
         <v>8</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37">
@@ -3503,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="N34" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O34" s="39" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P34" s="37"/>
       <c r="Q34" s="37"/>
@@ -3514,7 +3550,7 @@
     </row>
     <row r="35" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21">
@@ -3523,9 +3559,11 @@
       <c r="D35" s="21">
         <v>10</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="22" t="s">
+        <v>9</v>
+      </c>
       <c r="F35" s="22" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="21">
@@ -3542,11 +3580,11 @@
       <c r="M35" s="21"/>
       <c r="N35" s="22"/>
       <c r="O35" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P35" s="21"/>
       <c r="Q35" s="22" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="R35" s="24">
         <v>1</v>
@@ -3554,7 +3592,7 @@
     </row>
     <row r="36" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8">
@@ -3564,10 +3602,10 @@
         <v>1</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8">
@@ -3584,7 +3622,7 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
@@ -3594,7 +3632,7 @@
     </row>
     <row r="37" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11">
@@ -3604,10 +3642,10 @@
         <v>2</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -3621,7 +3659,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
       <c r="N37" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
@@ -3632,7 +3670,7 @@
     </row>
     <row r="38" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8">
@@ -3642,10 +3680,10 @@
         <v>5</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -3659,14 +3697,14 @@
         <v>1</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O38" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="R38" s="9">
         <v>1</v>
@@ -3674,7 +3712,7 @@
     </row>
     <row r="39" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11">
@@ -3684,10 +3722,10 @@
         <v>8</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11">
@@ -3703,10 +3741,10 @@
         <v>1</v>
       </c>
       <c r="N39" s="41" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="O39" s="42" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
@@ -3716,7 +3754,7 @@
     </row>
     <row r="40" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="45" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21">
@@ -3726,10 +3764,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -3750,7 +3788,7 @@
     </row>
     <row r="41" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="45" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="21">
@@ -3760,10 +3798,10 @@
         <v>11</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="21">
@@ -3777,7 +3815,7 @@
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
       <c r="N41" s="41" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O41" s="23"/>
       <c r="P41" s="21"/>
@@ -3788,7 +3826,7 @@
     </row>
     <row r="42" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14">
@@ -3798,10 +3836,10 @@
         <v>11</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14">
@@ -3817,10 +3855,10 @@
         <v>1</v>
       </c>
       <c r="N42" s="43" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>

--- a/talklists/talklist.xlsx
+++ b/talklists/talklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/home/cv/talklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA311CE-EC73-7742-9BA8-B18F9F6E7B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C81F4F-DF40-744A-A27E-24B997ED8078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="192">
   <si>
     <t>title</t>
   </si>
@@ -788,6 +788,21 @@
   </si>
   <si>
     <t>Hosei U</t>
+  </si>
+  <si>
+    <t>Probing Physics Beyond ΛCDM: Precision Cosmology with Gaussian and Non-Gaussian Information from Subaru Data</t>
+  </si>
+  <si>
+    <t>Earth and Space Science Seminar</t>
+  </si>
+  <si>
+    <t>https://www.ess.sci.osaka-u.ac.jp/researchers/seminar.html</t>
+  </si>
+  <si>
+    <t>Probing Physics Beyond LambdaCDM: Precision Cosmology with Gaussian and Non-Gaussian Information from Subaru Data</t>
+  </si>
+  <si>
+    <t>https://cosmopalooza.lbl.gov/</t>
   </si>
 </sst>
 </file>
@@ -983,7 +998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1030,6 +1045,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2161,11 +2180,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3580,7 +3599,7 @@
       <c r="M35" s="21"/>
       <c r="N35" s="22"/>
       <c r="O35" s="23" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="P35" s="21"/>
       <c r="Q35" s="22" t="s">
@@ -3864,6 +3883,38 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="15">
         <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="47">
+        <v>2025</v>
+      </c>
+      <c r="D43" s="47">
+        <v>7</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="47">
+        <v>1</v>
+      </c>
+      <c r="O43" s="48" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3897,6 +3948,7 @@
     <hyperlink ref="O38" r:id="rId27" xr:uid="{F278CA5F-70C1-244D-8F8F-D544334D6DA0}"/>
     <hyperlink ref="O30" r:id="rId28" xr:uid="{355E5364-5F3C-FA46-9141-89019E4CF3B7}"/>
     <hyperlink ref="O39" r:id="rId29" xr:uid="{C5D9AC31-DFAA-B44A-A853-C21314623C5C}"/>
+    <hyperlink ref="O43" r:id="rId30" xr:uid="{4F177060-0E22-8C42-B5E5-3DF784BED5A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/talklists/talklist.xlsx
+++ b/talklists/talklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/home/cv/talklists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/appforms/cv/talklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C81F4F-DF40-744A-A27E-24B997ED8078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B96B62-EFBB-874E-BB6E-9FD2DC297895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="200">
   <si>
     <t>title</t>
   </si>
@@ -803,6 +803,30 @@
   </si>
   <si>
     <t>https://cosmopalooza.lbl.gov/</t>
+  </si>
+  <si>
+    <t>Cosmology with third-order shear statistics Applications to HSC and DES</t>
+  </si>
+  <si>
+    <t>Beyond-two-point Statistics Meet Survey Systematics</t>
+  </si>
+  <si>
+    <t>Nhat-Minh Nguyen</t>
+  </si>
+  <si>
+    <t>https://indico.ipmu.jp/event/460/overview</t>
+  </si>
+  <si>
+    <t>Cosmology from a joint analysis of second and third order shear statistics</t>
+  </si>
+  <si>
+    <t>KICP</t>
+  </si>
+  <si>
+    <t>KICP seminar</t>
+  </si>
+  <si>
+    <t>Marco Gatti</t>
   </si>
 </sst>
 </file>
@@ -2180,11 +2204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L27" sqref="L27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3915,6 +3939,70 @@
       </c>
       <c r="O43" s="48" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="47">
+        <v>2025</v>
+      </c>
+      <c r="D44" s="47">
+        <v>9</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="47">
+        <v>1</v>
+      </c>
+      <c r="K44" s="47">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="O44" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="R44" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="47">
+        <v>2025</v>
+      </c>
+      <c r="D45" s="47">
+        <v>10</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="47">
+        <v>1</v>
+      </c>
+      <c r="N45" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="R45" s="47">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3949,6 +4037,7 @@
     <hyperlink ref="O30" r:id="rId28" xr:uid="{355E5364-5F3C-FA46-9141-89019E4CF3B7}"/>
     <hyperlink ref="O39" r:id="rId29" xr:uid="{C5D9AC31-DFAA-B44A-A853-C21314623C5C}"/>
     <hyperlink ref="O43" r:id="rId30" xr:uid="{4F177060-0E22-8C42-B5E5-3DF784BED5A7}"/>
+    <hyperlink ref="O44" r:id="rId31" xr:uid="{AF4601F7-8014-4F4E-9E9E-4A811C710B51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/talklists/talklist.xlsx
+++ b/talklists/talklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/appforms/cv/talklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B96B62-EFBB-874E-BB6E-9FD2DC297895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D42F450-1670-AC48-8DAA-A8F08F006126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="205">
   <si>
     <t>title</t>
   </si>
@@ -827,6 +827,22 @@
   </si>
   <si>
     <t>Marco Gatti</t>
+  </si>
+  <si>
+    <t>Dark matter and black holes</t>
+  </si>
+  <si>
+    <t>https://indico.ipmu.jp/event/464/timetable/#20251205</t>
+  </si>
+  <si>
+    <t>Observational search of PBH</t>
+  </si>
+  <si>
+    <t>Shared session with Masashiro</t>
+  </si>
+  <si>
+    <t>Data Compression with Noise Suppression 
+for Inference under Noisy Covariance</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1073,6 +1089,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2204,11 +2223,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B45" sqref="B45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4003,6 +4022,67 @@
       </c>
       <c r="R45" s="47">
         <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" s="47">
+        <v>2025</v>
+      </c>
+      <c r="D46" s="47">
+        <v>11</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="K46" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="47">
+        <v>2025</v>
+      </c>
+      <c r="D47" s="47">
+        <v>12</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="47">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="O47" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q47" s="49" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4038,6 +4118,7 @@
     <hyperlink ref="O39" r:id="rId29" xr:uid="{C5D9AC31-DFAA-B44A-A853-C21314623C5C}"/>
     <hyperlink ref="O43" r:id="rId30" xr:uid="{4F177060-0E22-8C42-B5E5-3DF784BED5A7}"/>
     <hyperlink ref="O44" r:id="rId31" xr:uid="{AF4601F7-8014-4F4E-9E9E-4A811C710B51}"/>
+    <hyperlink ref="O47" r:id="rId32" location="20251205" xr:uid="{A78B1068-3E64-CE41-A412-3DC6F80D6967}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
